--- a/figures/表.xlsx
+++ b/figures/表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\SoTuRonn\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9FE268-DF99-4921-A8AD-DB724C3CF5A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73D08E-3DF5-452A-8BEC-3BC4DF4B9DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40290" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FPGADemoTestTab" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>阶数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +104,38 @@
   </si>
   <si>
     <t>14…29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物内走廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空旷室外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,17 +188,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -458,18 +493,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -480,7 +515,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,7 +524,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -498,7 +533,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -507,7 +542,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -516,7 +551,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -527,7 +562,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -536,7 +571,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -545,7 +580,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -554,7 +589,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,4 +606,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EF83FC-E94B-408A-867E-4495F3D93C9F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-0.128</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-9.11E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-0.12909999999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
+        <f>AVERAGE(B2:B5)</f>
+        <v>-0.11460000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <f>AVERAGE(C2:C5)</f>
+        <v>1.1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>